--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Barrau/Jacques_Barrau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Barrau/Jacques_Barrau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Barrau, né le 3 avril 1925 à Marseille et mort le 29 juin 1997 à Paris 14e[1], est un botaniste et anthropologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Barrau, né le 3 avril 1925 à Marseille et mort le 29 juin 1997 à Paris 14e, est un botaniste et anthropologue français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Barrau commence ses études supérieures en 1942 à la Faculté des Sciences de l’université de Toulouse.
-Durant la Seconde Guerre mondiale, il est engagé volontaire dans l'armée de mars 1942 à juin 1944. Il est arrêté le 2 juin 1944 à Toulouse par la police allemande et est déporté au camp de Dachau, puis à Neckarelz, annexe du camp de concentration de Natzweiler. Il est libéré le 4 avril 1945 à Osterburken [2].
+Durant la Seconde Guerre mondiale, il est engagé volontaire dans l'armée de mars 1942 à juin 1944. Il est arrêté le 2 juin 1944 à Toulouse par la police allemande et est déporté au camp de Dachau, puis à Neckarelz, annexe du camp de concentration de Natzweiler. Il est libéré le 4 avril 1945 à Osterburken .
 En 1946, il obtient son diplôme d'ingénieur agronome de l'Institut agricole de l'université de Toulouse (actuelle École nationale supérieure agronomique). L'année suivante, il poursuit ses études à la Faculté des Sciences de l'université de Toulouse et à l’université d'Aix-Marseille et devient licencié ès-sciences
 De 1947 à 1952, il est chef de service de l'Agriculture de la Nouvelle-Calédonie, puis chargé de recherche et directeur de la section « Développement économique » à la Commission internationale du Pacifique Sud jusqu'en 1964. Parallèlement, il obtient son doctorat de sciences naturelles en 1957 avec deux thèses, Les Plantes alimentaires de l’Océanie : origines, distribution et usages et Essai d’agronomie des atolls océaniens.
 Entre 1964 et 1965 (et à nouveau en 1969), il est professeur invité d’ethnobiologie de l’université Yale, au département d’Anthropologie et au Département de Biologie. En 1965, il est nommé sous-directeur au laboratoire d’Ethnobotanique et d’Ethnozoologie du Muséum national d'histoire naturelle de Paris.
@@ -551,15 +565,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Distinctions
-1955 : Grande Médaille de Bronze de la Société nationale d’acclimatation de France pour ses recherches sur les plantes alimentaires de la Mélanésie.
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1955 : Grande Médaille de Bronze de la Société nationale d’acclimatation de France pour ses recherches sur les plantes alimentaires de la Mélanésie.
 1963 : Prix Henri Martel de l’Académie nationale de médecine, conjointement avec le professeur Émile Massal, pour leurs recherches sur les aspects nutritionnels de la consommation des aliments végétaux coutumiers des Océaniens.
 1981 : Médaille d’Argent du CNRS pour l’ensemble de ses travaux et pour ses activités de promotion de recherches interdisciplinaires sur les relations entre les sociétés humaines et leurs environnements.
 1983 : Prix littéraire international décerné par la Fédération internationale de la presse gastronomique, pour son ouvrage Les Hommes et leurs aliments.
 1994 : Prix international Cosmos pour ses travaux sur les relations entre les sociétés humaines et la nature, prix qui lui a été remis le 25 octobre 1994 à l’Université des Nations unies à Tokyo en présence du Prince Héritier du Japon et du gouvernement japonais.
-1995 : Trophée de l’Ingénieur agronome de l’année 1995, remis à l’École nationale supérieure agronomique de l’Institut national polytechnique de Toulouse.
-Décorations
- Officier de la Légion d'honneur (1984)
+1995 : Trophée de l’Ingénieur agronome de l’année 1995, remis à l’École nationale supérieure agronomique de l’Institut national polytechnique de Toulouse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Barrau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barrau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distinctions et décorations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (1984)
  Chevalier de l'ordre des Palmes académiques (1981)
  Chevalier de l'ordre national du Mérite (1966) à titre militaire
  Officier de l'ordre du Mérite agricole (1961)
